--- a/Metadata/DI_Teradata_To_Snowflake_Conversion/DI_Teradata_To_Snowflake_Conversion.xlsx
+++ b/Metadata/DI_Teradata_To_Snowflake_Conversion/DI_Teradata_To_Snowflake_Conversion.xlsx
@@ -9,19 +9,21 @@
   <sheets>
     <sheet name="Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="MASTER_METADATA_OVERVIEW_TABLE" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="WorkflowLevel_Metadata_Comparis" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Agent_Inventory_Comparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Comparison_Basis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Fields_Compared_agentName_10_vs" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Summary_Counts" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Agent_Intent_Classification_Com" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Intent_Distribution_Summary" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Tooling_Metadata_Comparison" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Integration_Points_Summary" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Control_Flow_Metadata_Compariso" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Control_Flow_Patterns_Summary" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Output_Specification_Metadata_C" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Output_Destination_Summary" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Metadata_Compatibility_Assessme" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Migration_Reusability_Assessmen" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Agent_diteradatatosnowflakeconv" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Comparison_Basis_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Intent_Distribution_Summary" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Comparison_Rule_Exact_string_ma" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Model_Distribution_Summary" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Comparison_Basis_2" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Integration_Points_Summary" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Comparison_Basis_3" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Missing_Added_Metadata_Fields" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Table_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Metadata_Compatibility_Assessme" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="ConfigurationLevel_Migration_As" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-21 02:27:08</t>
+          <t>2026-01-21 03:06:19</t>
         </is>
       </c>
     </row>
@@ -482,7 +484,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -491,6 +493,97 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="17" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Model Reference</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0 Agent Count</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0 Agent Count</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Change</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>gpt-4</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>gpt-4.1</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>+5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -505,9 +598,9 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="43" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="26" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -518,39 +611,39 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0 Control Logic</t>
+          <t>AAVA 1.0 Tools</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0 Control Logic</t>
+          <t>AAVA 2.0 Tools</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Control Flow Match</t>
+          <t>Tool Availability Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester</t>
+          <t>DI Teradata To Snowflake ConversionTester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Present (validation steps, test execution report template, positive/negative scenarios, performance tests)</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Present (similar: validation, test case creation, positive/negative scenarios, performance)</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>✓ Equivalent</t>
+          <t>Not Declared in Either</t>
         </is>
       </c>
     </row>
@@ -559,7 +652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -573,210 +666,141 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="12" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Control Pattern</t>
+          <t>Integration Type</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0 Count</t>
+          <t>AAVA 1.0 Presence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0 Count</t>
+          <t>AAVA 2.0 Presence</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Change</t>
+          <t>Comparison</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Conditional Logic</t>
+          <t>S3 Storage</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>Same</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Delegation Patterns</t>
+          <t>GitHub</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Same</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sequential Gating</t>
+          <t>Jira</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>Same</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Parallel Execution Hints</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Same</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>No Control Flow</t>
+          <t>Custom Tools</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>None</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>None</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="43" customWidth="1" min="1" max="1"/>
-    <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Agent (Matched Pairs)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0 Output Type</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0 Output Type</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Output Compatibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Detailed test case document, Pytest script, and cost analysis</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Detailed test case document, Pytest script, and cost analysis</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>✓ Equivalent</t>
+          <t>Same</t>
         </is>
       </c>
     </row>
@@ -791,7 +815,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,141 +823,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="19" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="1" max="1"/>
+    <col width="50" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Destination Type</t>
+          <t>Agent (Matched Pairs)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0 Count</t>
+          <t>AAVA 1.0 Output Spec</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0 Count</t>
+          <t>AAVA 2.0 Output Spec</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Change</t>
+          <t>Field Presence</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Output Spec Match</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S3 Storage</t>
+          <t>DI Teradata To Snowflake ConversionTester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>A detailed test case document, Pytest script, and cost analysis.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>Not Declared</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GitHub Repository</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Databricks</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>In-Memory/Return</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Not Specified</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
+          <t>1.0 Only</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -948,7 +895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -956,144 +903,127 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="36" customWidth="1" min="1" max="1"/>
-    <col width="26" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Compatibility Dimension</t>
+          <t>Field Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Verdict</t>
+          <t>Field Location</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Justification</t>
+          <t>Impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Structural Compatibility</t>
+          <t>workflowId</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Partially Compatible</t>
+          <t>Workflow level</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Different workflow/agent structures, only one agent matched, field names and nesting differ</t>
+          <t>Replaced by workFlowDetail.id</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Intent Compatibility</t>
+          <t>workflowName</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Workflow level</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Matched agent has equivalent testing/validation intent</t>
+          <t>Replaced by workFlowDetail.name</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tool Compatibility</t>
+          <t>nodes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Workflow level</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No tools in either workflow for the matched agent</t>
+          <t>Replaced by workflowAgents</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Compatibility</t>
+          <t>model</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Different</t>
+          <t>Agent level</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1.0 uses "gpt-4", 2.0 uses "gpt-4.1" and more models</t>
+          <t>Replaced by modelDeploymentName</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Control Flow Compatibility</t>
+          <t>task</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Agent level</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Equivalent validation/test execution logic in matched agent</t>
+          <t>Flattened; task.description → description</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Output Specification Compatibility</t>
+          <t>task.expectedOutput</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Agent level</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Both define detailed test case documents, Pytest scripts, and cost analysis as output</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>**Overall Metadata Equivalence**</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>**Partially Equivalent**</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>**Most dimensions align for the matched agent, but structural and model differences prevent full equivalence**</t>
+          <t>Not present in 2.0</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1038,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1116,79 +1046,420 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="41" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Assessment Aspect</t>
+          <t>Field Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Field Location</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Impact</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Can AAVA 2.0 Directly Replace AAVA 1.0?</t>
+          <t>workFlowDetail</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Workflow level</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>New nested structure</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Metadata Redesign Required?</t>
+          <t>agentId</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Moderate</t>
+          <t>Agent level</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>New agent identifier field</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Agent Mapping Possible?</t>
+          <t>modelDeploymentName</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Partially</t>
+          <t>Agent level</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Replaces "model" field</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tool Migration Feasible?</t>
+          <t>toolReferences</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>Agent level</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Replaces "tools" field (may be empty)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="36" customWidth="1" min="1" max="1"/>
+    <col width="44" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Compatibility Dimension</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Assessment Basis</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Verdict</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Justification</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Structural Compatibility</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>JSON structure, field names, nesting</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Partially Compatible</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Flat (1.0) vs nested (2.0); field name changes</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Agent Definition Compatibility</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Agent count, names, presence</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Partially Compatible</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1 matched, 4 unmatched agents in 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Model Reference Compatibility</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>model vs modelDeploymentName values</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Different</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Model string changed for matched agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Tool Declaration Compatibility</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>tools vs toolReferences arrays</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Not Declared</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Both versions have empty tool arrays</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>**Overall Reusability Verdict**</t>
+          <t>Intent Alignment</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Intent classification from descriptions</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Equivalent</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Intent matches for matched agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Output Specification Compatibility</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>task.expectedOutput presence and content</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Not Declared/Different</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Output spec missing in 2.0 for matched agent</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>**Overall Metadata Compatibility**</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>**Weighted combination of all dimensions**</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>**Partially Equivalent**</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>**Structural changes, agent gaps, field renames**</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="39" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Assessment Aspect</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Explanation</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Field Mapping Required?</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>workflowId → workFlowDetail.id, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Structural Adaptation Required?</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Flat to nested conversion needed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Model Reference Updates Required?</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>model → modelDeploymentName, gpt-4 → gpt-4.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Agent Remapping Required?</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>4 agents in 2.0 not present in 1.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>**Overall Configuration Reusability**</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>**Reusable with Modifications**</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>**Field and structure changes must be addressed**</t>
         </is>
       </c>
     </row>
@@ -1203,7 +1474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1211,10 +1482,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="18" customWidth="1" min="2" max="2"/>
-    <col width="25" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="32" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="35" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1225,17 +1496,17 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>Metadata Fields Compared</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>Comparison Method</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Comparison Result</t>
+          <t>Result</t>
         </is>
       </c>
     </row>
@@ -1247,12 +1518,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>workflowId: 7885</t>
+          <t>workflowId vs workFlowDetail.id</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>workFlowDetail.id: 2603</t>
+          <t>Exact integer match</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1264,17 +1535,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Total Agent Count</t>
+          <t>Workflow Name</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>workflowName vs workFlowDetail.name</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>Normalized string comparison</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1286,152 +1557,130 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Matched Agents</t>
+          <t>Agent Count</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>nodes vs workflowAgents (array length)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Integer count</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1 matched / 6 total</t>
+          <t>Different (1 vs 5)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Unmatched Agents (1.0)</t>
+          <t>Agent Definitions</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Agent-level fields per matched pair</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Field-by-field comparison</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0 unmatched</t>
+          <t>1 matched, 4 unmatched (2.0 only)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Unmatched Agents (2.0)</t>
+          <t>Model References</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>model vs modelDeploymentName</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Exact string match</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4 unmatched</t>
+          <t>Different</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Intent Compatibility</t>
+          <t>Tool Declarations</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>tools vs toolReferences</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Set comparison</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Not Declared</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tooling Compatibility</t>
+          <t>Task Descriptions</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>task.description vs description</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Textual similarity</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Equivalent</t>
+          <t>Equivalent (for matched agent)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Consistency</t>
+          <t>Overall Metadata Compatibility</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>All dimensions combined</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Weighted assessment</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
-        <is>
-          <t>Different</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Overall Metadata Equivalence</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
         <is>
           <t>Partially Equivalent</t>
         </is>
@@ -1448,7 +1697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1459,7 +1708,8 @@
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="43" customWidth="1" min="2" max="2"/>
     <col width="37" customWidth="1" min="3" max="3"/>
-    <col width="11" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="11" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1480,7 +1730,12 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Comparison Method</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
         </is>
       </c>
     </row>
@@ -1502,6 +1757,11 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Field name comparison</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>Different</t>
         </is>
       </c>
@@ -1524,6 +1784,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>Exact integer match</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Different</t>
         </is>
       </c>
@@ -1546,6 +1811,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>Field name comparison</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Different</t>
         </is>
       </c>
@@ -1568,6 +1838,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>Normalized string match</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Different</t>
         </is>
       </c>
@@ -1575,7 +1850,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JSON Structure Style</t>
+          <t>JSON Structure</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1585,10 +1860,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nested</t>
+          <t>Nested (workFlowDetail object)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
+        <is>
+          <t>Structural analysis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Different</t>
         </is>
@@ -1611,6 +1891,11 @@
         </is>
       </c>
       <c r="D7" t="inlineStr">
+        <is>
+          <t>Field name comparison</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Different</t>
         </is>
@@ -1635,10 +1920,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="40" customWidth="1" min="1" max="1"/>
-    <col width="49" customWidth="1" min="2" max="2"/>
-    <col width="49" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="39" customWidth="1" min="1" max="1"/>
+    <col width="43" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1649,34 +1934,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Present in AAVA 1.0</t>
+          <t>AAVA 1.0 (Exact Field Value)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Present in AAVA 2.0</t>
+          <t>AAVA 2.0 (Exact Field Value)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Matching Status</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>diteradatatotsnowflakeconversiontester</t>
+          <t>diteradatatosnowflakeconversiontester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Yes - DI_Teradata_To_Snowflake_ConversionTester</t>
+          <t>DI_Teradata_To_Snowflake_ConversionTester</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yes - DI Teradata To Snowflake ConversionTester</t>
+          <t>DI Teradata To Snowflake ConversionTester</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -1688,88 +1973,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>diteradatatotsnowflakeconverter</t>
+          <t>diteradatatosnowflakeconverter</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yes - DI Teradata To Snowflake Converter</t>
+          <t>DI Teradata To Snowflake Converter</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Extra in 2.0</t>
+          <t>Unmatched (2.0 only)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>diteradatatotsnowflakeunittest</t>
+          <t>diteradatatosnowflakeunittest</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yes - DI Teradata To Snowflake UnitTest</t>
+          <t>DI Teradata To Snowflake UnitTest</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Extra in 2.0</t>
+          <t>Unmatched (2.0 only)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>diteradatatotsnowflakerecontest</t>
+          <t>diteradatatosnowflakerecontest</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yes - DI Teradata To Snowflake ReconTest</t>
+          <t>DI Teradata To Snowflake ReconTest</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Extra in 2.0</t>
+          <t>Unmatched (2.0 only)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>diteradatatotsnowflakereviewer</t>
+          <t>diteradatatosnowflakereviewer</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yes - DI Teradata To Snowflake Reviewer</t>
+          <t>DI Teradata To Snowflake Reviewer</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Extra in 2.0</t>
+          <t>Unmatched (2.0 only)</t>
         </is>
       </c>
     </row>
@@ -1784,7 +2069,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1794,6 +2079,7 @@
   <cols>
     <col width="25" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="45" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1807,6 +2093,11 @@
           <t>Count</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Explanation</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1819,6 +2110,11 @@
           <t>0</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Declared in 1.0, no normalized match in 2.0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1831,6 +2127,11 @@
           <t>4</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Declared in 2.0, no normalized match in 1.0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1843,6 +2144,11 @@
           <t>1</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Normalized names match between versions</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1853,6 +2159,11 @@
       <c r="B5" t="inlineStr">
         <is>
           <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>All unique normalized names</t>
         </is>
       </c>
     </row>
@@ -1867,7 +2178,294 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="7" max="7"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Field Category</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0 Field</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 1.0 Value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0 Field</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>AAVA 2.0 Value</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Comparison Method</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Agent Identifier</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>agentName</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>DI_Teradata_To_Snowflake_ConversionTester</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DI Teradata To Snowflake ConversionTester</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Normalized match</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Agent ID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>agentId</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>7116</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Field presence</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Added in 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Model Reference</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gpt-4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>modelDeploymentName</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>gpt-4.1</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Exact string match</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Different</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Task Description</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>task.description</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[See below, truncated]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>[See below, truncated]</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Textual similarity</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Equivalent</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Expected Output</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>task.expectedOutput</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>A detailed test case document, Pytest script, and cost analysis.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>(no direct field)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Not present</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Field presence</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Missing in 2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Tool References</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>tools</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>toolReferences</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Set comparison</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Not Declared</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1876,28 +2474,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="43" customWidth="1" min="1" max="1"/>
-    <col width="20" customWidth="1" min="2" max="2"/>
-    <col width="20" customWidth="1" min="3" max="3"/>
-    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="26" customWidth="1" min="3" max="3"/>
+    <col width="43" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Agent Name (Matched Pairs Only)</t>
+          <t>Agent (Matched Pairs)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0 Intent</t>
+          <t>AAVA 1.0 Intent Category</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0 Intent</t>
+          <t>AAVA 2.0 Intent Category</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Classification Basis</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Intent Match</t>
         </is>
@@ -1906,7 +2510,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester</t>
+          <t>DI Teradata To Snowflake ConversionTester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1920,6 +2524,11 @@
         </is>
       </c>
       <c r="D2" t="inlineStr">
+        <is>
+          <t>"test cases", "Pytest script", "validate"</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>✓ Equivalent</t>
         </is>
@@ -1930,7 +2539,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1975,7 +2584,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Token/Size Estimation</t>
+          <t>Conversion/Transformation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1985,29 +2594,29 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Conversion/Transformation</t>
+          <t>Testing/Validation</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -2019,7 +2628,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Code Generation/Update</t>
+          <t>Review/Audit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -2029,41 +2638,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Testing/Validation</t>
+          <t>Code Generation/Update</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Review/Audit</t>
+          <t>Token/Size Estimation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -2073,12 +2682,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2139,81 +2748,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="43" customWidth="1" min="1" max="1"/>
-    <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="4" max="4"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Agent (Matched Pairs)</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 1.0 Tools</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>AAVA 2.0 Tools</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Tool Compatibility</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>DI_Teradata_To_Snowflake_ConversionTester</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>✓ Same Tools</t>
+          <t>+1</t>
         </is>
       </c>
     </row>
@@ -2228,7 +2768,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2236,141 +2776,64 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="18" customWidth="1" min="1" max="1"/>
-    <col width="10" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
+    <col width="43" customWidth="1" min="1" max="1"/>
+    <col width="16" customWidth="1" min="2" max="2"/>
+    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
+    <col width="13" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Integration Type</t>
+          <t>Agent (Matched Pairs)</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 1.0</t>
+          <t>AAVA 1.0 Model</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>AAVA 2.0</t>
+          <t>AAVA 2.0 Model</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Status</t>
+          <t>Field Name Change</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Model Match</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>S3 Storage</t>
+          <t>DI Teradata To Snowflake ConversionTester</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>gpt-4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>gpt-4.1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Same</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>GitHub</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Same</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Jira</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Same</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Databricks</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Same</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Custom Tools</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Same</t>
+          <t>model → modelDeploymentName</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Different</t>
         </is>
       </c>
     </row>
